--- a/data/trans_orig/P14A27-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A27-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA2452CE-F186-4EDA-BE50-133D423E8924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AED0458-D40C-467E-A53D-94491A4F0B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D831E2E-84ED-4DCA-B47B-2E2936778860}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE5DB85A-F8A4-4B98-AA6D-E698DD80AC32}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="268">
   <si>
     <t>Población que recibe medicación o terapia por cataratas en 2012 (Tasa respuesta: 2,23%)</t>
   </si>
@@ -84,7 +84,7 @@
     <t>61,84%</t>
   </si>
   <si>
-    <t>21,02%</t>
+    <t>21,01%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -102,10 +102,10 @@
     <t>68,88%</t>
   </si>
   <si>
-    <t>42,45%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>38,16%</t>
@@ -114,7 +114,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>78,98%</t>
+    <t>78,99%</t>
   </si>
   <si>
     <t>28,52%</t>
@@ -129,10 +129,10 @@
     <t>31,12%</t>
   </si>
   <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>57,46%</t>
   </si>
   <si>
     <t>100%</t>
@@ -144,7 +144,7 @@
     <t>19,01%</t>
   </si>
   <si>
-    <t>76,21%</t>
+    <t>78,97%</t>
   </si>
   <si>
     <t>34,08%</t>
@@ -162,7 +162,7 @@
     <t>80,99%</t>
   </si>
   <si>
-    <t>23,79%</t>
+    <t>21,03%</t>
   </si>
   <si>
     <t>65,92%</t>
@@ -183,49 +183,55 @@
     <t>28,16%</t>
   </si>
   <si>
-    <t>50,6%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>51,98%</t>
   </si>
   <si>
     <t>37,32%</t>
   </si>
   <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>57,76%</t>
   </si>
   <si>
     <t>33,24%</t>
   </si>
   <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>48,22%</t>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
   </si>
   <si>
     <t>71,84%</t>
   </si>
   <si>
-    <t>49,4%</t>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
   </si>
   <si>
     <t>62,68%</t>
   </si>
   <si>
-    <t>41,93%</t>
-  </si>
-  <si>
-    <t>81,77%</t>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
   </si>
   <si>
     <t>66,76%</t>
   </si>
   <si>
-    <t>51,78%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>79,1%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -234,49 +240,49 @@
     <t>22,81%</t>
   </si>
   <si>
-    <t>57,54%</t>
+    <t>57,63%</t>
   </si>
   <si>
     <t>33,35%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
   <si>
     <t>28,63%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
   </si>
   <si>
     <t>77,19%</t>
   </si>
   <si>
-    <t>42,46%</t>
+    <t>42,37%</t>
   </si>
   <si>
     <t>66,65%</t>
   </si>
   <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
   </si>
   <si>
     <t>71,37%</t>
   </si>
   <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -321,55 +327,55 @@
     <t>49,99%</t>
   </si>
   <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
   </si>
   <si>
     <t>32,54%</t>
   </si>
   <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
   </si>
   <si>
     <t>40,92%</t>
   </si>
   <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
   </si>
   <si>
     <t>50,01%</t>
   </si>
   <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>76,28%</t>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>78,02%</t>
   </si>
   <si>
     <t>67,46%</t>
   </si>
   <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
   </si>
   <si>
     <t>59,08%</t>
   </si>
   <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
+    <t>36,89%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -378,103 +384,103 @@
     <t>16,08%</t>
   </si>
   <si>
-    <t>49,56%</t>
+    <t>49,64%</t>
   </si>
   <si>
     <t>52,31%</t>
   </si>
   <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>76,24%</t>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
   </si>
   <si>
     <t>37,1%</t>
   </si>
   <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>56,22%</t>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
   </si>
   <si>
     <t>83,92%</t>
   </si>
   <si>
-    <t>50,44%</t>
+    <t>50,36%</t>
   </si>
   <si>
     <t>47,69%</t>
   </si>
   <si>
-    <t>23,76%</t>
-  </si>
-  <si>
-    <t>74,24%</t>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
   </si>
   <si>
     <t>62,9%</t>
   </si>
   <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>44,06%</t>
   </si>
   <si>
     <t>45,48%</t>
   </si>
   <si>
-    <t>34,79%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
+    <t>35,36%</t>
+  </si>
+  <si>
+    <t>57,02%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
+    <t>55,94%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
   </si>
   <si>
     <t>54,52%</t>
   </si>
   <si>
-    <t>44,09%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
+    <t>42,98%</t>
+  </si>
+  <si>
+    <t>64,64%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>52,59%</t>
-  </si>
-  <si>
-    <t>68,95%</t>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>68,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -489,10 +495,13 @@
     <t>9,36%</t>
   </si>
   <si>
+    <t>53,23%</t>
+  </si>
+  <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>31,92%</t>
+    <t>31,66%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -501,10 +510,13 @@
     <t>90,64%</t>
   </si>
   <si>
+    <t>46,77%</t>
+  </si>
+  <si>
     <t>92,9%</t>
   </si>
   <si>
-    <t>68,08%</t>
+    <t>68,34%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -546,7 +558,7 @@
     <t>33,26%</t>
   </si>
   <si>
-    <t>82,58%</t>
+    <t>82,59%</t>
   </si>
   <si>
     <t>63,9%</t>
@@ -558,16 +570,16 @@
     <t>48,71%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
   </si>
   <si>
     <t>66,74%</t>
   </si>
   <si>
-    <t>17,42%</t>
+    <t>17,41%</t>
   </si>
   <si>
     <t>36,1%</t>
@@ -579,10 +591,10 @@
     <t>51,29%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
   </si>
   <si>
     <t>67,86%</t>
@@ -591,16 +603,16 @@
     <t>67,21%</t>
   </si>
   <si>
-    <t>18,29%</t>
+    <t>18,67%</t>
   </si>
   <si>
     <t>67,41%</t>
   </si>
   <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
   </si>
   <si>
     <t>32,14%</t>
@@ -609,16 +621,16 @@
     <t>32,79%</t>
   </si>
   <si>
-    <t>81,71%</t>
+    <t>81,33%</t>
   </si>
   <si>
     <t>32,59%</t>
   </si>
   <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>66,9%</t>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>66,81%</t>
   </si>
   <si>
     <t>34,94%</t>
@@ -651,9 +663,6 @@
     <t>48,74%</t>
   </si>
   <si>
-    <t>21,03%</t>
-  </si>
-  <si>
     <t>77,0%</t>
   </si>
   <si>
@@ -678,9 +687,6 @@
     <t>23,0%</t>
   </si>
   <si>
-    <t>78,97%</t>
-  </si>
-  <si>
     <t>49,45%</t>
   </si>
   <si>
@@ -738,103 +744,103 @@
     <t>11,07%</t>
   </si>
   <si>
-    <t>49,82%</t>
+    <t>50,63%</t>
   </si>
   <si>
     <t>32,88%</t>
   </si>
   <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>58,78%</t>
   </si>
   <si>
     <t>26,48%</t>
   </si>
   <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
   </si>
   <si>
     <t>88,93%</t>
   </si>
   <si>
-    <t>50,18%</t>
+    <t>49,37%</t>
   </si>
   <si>
     <t>67,12%</t>
   </si>
   <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
+    <t>41,22%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
   </si>
   <si>
     <t>73,52%</t>
   </si>
   <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>88,15%</t>
   </si>
   <si>
     <t>35,92%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
   </si>
   <si>
     <t>43,01%</t>
   </si>
   <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>54,89%</t>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>55,28%</t>
   </si>
   <si>
     <t>40,85%</t>
   </si>
   <si>
-    <t>32,05%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>49,63%</t>
   </si>
   <si>
     <t>64,08%</t>
   </si>
   <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>77,78%</t>
   </si>
   <si>
     <t>56,99%</t>
   </si>
   <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>67,81%</t>
   </si>
   <si>
     <t>59,15%</t>
   </si>
   <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>67,95%</t>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A1A847-DBE8-436B-B803-C0310E0FCA79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700D9D46-4935-4305-A08F-D86467FB8F4B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1820,10 +1826,10 @@
         <v>47</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -1832,13 +1838,13 @@
         <v>8579</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -1847,13 +1853,13 @@
         <v>13782</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1868,13 +1874,13 @@
         <v>13272</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -1883,13 +1889,13 @@
         <v>14408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -1898,13 +1904,13 @@
         <v>27681</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1960,7 +1966,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1972,13 +1978,13 @@
         <v>2211</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1987,13 +1993,13 @@
         <v>3987</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2002,13 +2008,13 @@
         <v>6198</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2023,10 +2029,10 @@
         <v>7482</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -2038,13 +2044,13 @@
         <v>7965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -2053,13 +2059,13 @@
         <v>15447</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2115,7 +2121,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2130,10 +2136,10 @@
         <v>24</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -2142,7 +2148,7 @@
         <v>2971</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>24</v>
@@ -2157,13 +2163,13 @@
         <v>2970</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,7 +2187,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>32</v>
@@ -2193,7 +2199,7 @@
         <v>995</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>24</v>
@@ -2208,13 +2214,13 @@
         <v>3140</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,7 +2276,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2282,13 +2288,13 @@
         <v>7151</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -2297,13 +2303,13 @@
         <v>5034</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -2312,13 +2318,13 @@
         <v>12185</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2333,13 +2339,13 @@
         <v>7153</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -2348,13 +2354,13 @@
         <v>10438</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -2363,13 +2369,13 @@
         <v>17591</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,7 +2431,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2437,13 +2443,13 @@
         <v>2141</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2452,13 +2458,13 @@
         <v>9621</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -2467,13 +2473,13 @@
         <v>11762</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2488,10 +2494,10 @@
         <v>11170</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>16</v>
@@ -2503,13 +2509,13 @@
         <v>8770</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -2518,13 +2524,13 @@
         <v>19940</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2592,13 +2598,13 @@
         <v>20823</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H28" s="7">
         <v>38</v>
@@ -2607,13 +2613,13 @@
         <v>42341</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M28" s="7">
         <v>57</v>
@@ -2622,13 +2628,13 @@
         <v>63164</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,13 +2649,13 @@
         <v>47159</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H29" s="7">
         <v>46</v>
@@ -2658,13 +2664,13 @@
         <v>50755</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M29" s="7">
         <v>88</v>
@@ -2673,13 +2679,13 @@
         <v>97914</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,7 +2741,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2759,7 +2765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A60A7109-B9CA-4C42-99B5-911A4CD16F94}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8295F0B4-DD4B-4D84-8BA2-6724CBE41C5B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2776,7 +2782,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2886,10 +2892,10 @@
         <v>24</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -2898,13 +2904,13 @@
         <v>885</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>45</v>
+        <v>152</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -2913,13 +2919,13 @@
         <v>885</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,7 +2943,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>32</v>
@@ -2949,10 +2955,10 @@
         <v>8577</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>39</v>
+        <v>157</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>16</v>
@@ -2964,10 +2970,10 @@
         <v>11582</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>16</v>
@@ -3041,10 +3047,10 @@
         <v>24</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -3053,10 +3059,10 @@
         <v>3415</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L7" s="7" t="s">
         <v>16</v>
@@ -3068,13 +3074,13 @@
         <v>3415</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,7 +3098,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>32</v>
@@ -3104,13 +3110,13 @@
         <v>2398</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -3119,13 +3125,13 @@
         <v>3477</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3193,13 +3199,13 @@
         <v>1721</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3208,10 +3214,10 @@
         <v>3362</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>16</v>
@@ -3223,13 +3229,13 @@
         <v>5082</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3244,10 +3250,10 @@
         <v>3452</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -3259,13 +3265,13 @@
         <v>1899</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>6</v>
@@ -3274,13 +3280,13 @@
         <v>5351</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3348,7 +3354,7 @@
         <v>1903</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>24</v>
@@ -3363,10 +3369,10 @@
         <v>4405</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>16</v>
@@ -3378,13 +3384,13 @@
         <v>6308</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3399,7 +3405,7 @@
         <v>902</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>24</v>
@@ -3414,13 +3420,13 @@
         <v>2149</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -3429,13 +3435,13 @@
         <v>3050</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,7 +3497,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3516,13 +3522,13 @@
         <v>2351</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -3531,13 +3537,13 @@
         <v>2351</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3565,10 +3571,10 @@
         <v>4378</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>16</v>
@@ -3580,10 +3586,10 @@
         <v>4378</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>16</v>
@@ -3640,7 +3646,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3652,10 +3658,10 @@
         <v>2644</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -3667,13 +3673,13 @@
         <v>3456</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M19" s="7">
         <v>6</v>
@@ -3682,13 +3688,13 @@
         <v>6100</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3703,13 +3709,13 @@
         <v>1573</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3718,13 +3724,13 @@
         <v>4841</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -3733,13 +3739,13 @@
         <v>6414</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>213</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,7 +3801,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3807,13 +3813,13 @@
         <v>5578</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -3822,13 +3828,13 @@
         <v>10543</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -3837,13 +3843,13 @@
         <v>16120</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3858,13 +3864,13 @@
         <v>5702</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -3873,13 +3879,13 @@
         <v>8967</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -3888,13 +3894,13 @@
         <v>14670</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3950,7 +3956,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3962,13 +3968,13 @@
         <v>867</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -3977,13 +3983,13 @@
         <v>6194</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -3992,13 +3998,13 @@
         <v>7061</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,10 +4019,10 @@
         <v>6962</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>16</v>
@@ -4028,13 +4034,13 @@
         <v>12646</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -4043,13 +4049,13 @@
         <v>19608</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4117,13 +4123,13 @@
         <v>12712</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -4132,13 +4138,13 @@
         <v>34610</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M28" s="7">
         <v>44</v>
@@ -4147,13 +4153,13 @@
         <v>47323</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4174,13 @@
         <v>22676</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H29" s="7">
         <v>40</v>
@@ -4183,13 +4189,13 @@
         <v>45855</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M29" s="7">
         <v>64</v>
@@ -4198,13 +4204,13 @@
         <v>68530</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,7 +4266,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14A27-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A27-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AED0458-D40C-467E-A53D-94491A4F0B98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A354A91-66BF-4E2A-A014-66E6F36685A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{EE5DB85A-F8A4-4B98-AA6D-E698DD80AC32}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F7D93BB5-C7E8-4672-AED8-F4E555CCEB9D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="270">
   <si>
     <t>Población que recibe medicación o terapia por cataratas en 2012 (Tasa respuesta: 2,23%)</t>
   </si>
@@ -93,19 +93,19 @@
     <t>71,48%</t>
   </si>
   <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>68,88%</t>
   </si>
   <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>44,29%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
   </si>
   <si>
     <t>38,16%</t>
@@ -120,19 +120,19 @@
     <t>28,52%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>59,43%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
   </si>
   <si>
     <t>31,12%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -144,37 +144,43 @@
     <t>19,01%</t>
   </si>
   <si>
-    <t>78,97%</t>
+    <t>78,91%</t>
   </si>
   <si>
     <t>34,08%</t>
   </si>
   <si>
-    <t>82,97%</t>
+    <t>83,5%</t>
   </si>
   <si>
     <t>27,52%</t>
   </si>
   <si>
-    <t>55,68%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>62,79%</t>
   </si>
   <si>
     <t>80,99%</t>
   </si>
   <si>
-    <t>21,03%</t>
+    <t>21,09%</t>
   </si>
   <si>
     <t>65,92%</t>
   </si>
   <si>
-    <t>17,03%</t>
+    <t>16,5%</t>
   </si>
   <si>
     <t>72,48%</t>
   </si>
   <si>
-    <t>44,32%</t>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -183,55 +189,55 @@
     <t>28,16%</t>
   </si>
   <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>52,06%</t>
   </si>
   <si>
     <t>37,32%</t>
   </si>
   <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>57,76%</t>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
   </si>
   <si>
     <t>33,24%</t>
   </si>
   <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
   </si>
   <si>
     <t>71,84%</t>
   </si>
   <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
+    <t>47,94%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>62,68%</t>
   </si>
   <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>81,87%</t>
   </si>
   <si>
     <t>66,76%</t>
   </si>
   <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -240,49 +246,43 @@
     <t>22,81%</t>
   </si>
   <si>
-    <t>57,63%</t>
+    <t>57,08%</t>
   </si>
   <si>
     <t>33,35%</t>
   </si>
   <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>68,97%</t>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
   </si>
   <si>
     <t>28,63%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
+    <t>53,53%</t>
   </si>
   <si>
     <t>77,19%</t>
   </si>
   <si>
-    <t>42,37%</t>
+    <t>42,92%</t>
   </si>
   <si>
     <t>66,65%</t>
   </si>
   <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>71,37%</t>
   </si>
   <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
+    <t>46,47%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -297,13 +297,16 @@
     <t>74,9%</t>
   </si>
   <si>
+    <t>24,11%</t>
+  </si>
+  <si>
     <t>48,62%</t>
   </si>
   <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -312,13 +315,16 @@
     <t>25,1%</t>
   </si>
   <si>
+    <t>75,89%</t>
+  </si>
+  <si>
     <t>51,38%</t>
   </si>
   <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -327,55 +333,55 @@
     <t>49,99%</t>
   </si>
   <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
   </si>
   <si>
     <t>32,54%</t>
   </si>
   <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>59,35%</t>
   </si>
   <si>
     <t>40,92%</t>
   </si>
   <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>62,4%</t>
   </si>
   <si>
     <t>50,01%</t>
   </si>
   <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>78,02%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
   </si>
   <si>
     <t>67,46%</t>
   </si>
   <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
+    <t>40,65%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
   </si>
   <si>
     <t>59,08%</t>
   </si>
   <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -384,109 +390,103 @@
     <t>16,08%</t>
   </si>
   <si>
-    <t>49,64%</t>
+    <t>49,7%</t>
   </si>
   <si>
     <t>52,31%</t>
   </si>
   <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>76,42%</t>
+    <t>76,06%</t>
   </si>
   <si>
     <t>37,1%</t>
   </si>
   <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
   </si>
   <si>
     <t>83,92%</t>
   </si>
   <si>
-    <t>50,36%</t>
+    <t>50,3%</t>
   </si>
   <si>
     <t>47,69%</t>
   </si>
   <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>73,47%</t>
+    <t>23,94%</t>
   </si>
   <si>
     <t>62,9%</t>
   </si>
   <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
   </si>
   <si>
     <t>30,63%</t>
   </si>
   <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>44,06%</t>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>44,94%</t>
   </si>
   <si>
     <t>45,48%</t>
   </si>
   <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
   </si>
   <si>
     <t>69,37%</t>
   </si>
   <si>
-    <t>55,94%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
   </si>
   <si>
     <t>54,52%</t>
   </si>
   <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
+    <t>43,69%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
   </si>
   <si>
     <t>60,79%</t>
   </si>
   <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>68,65%</t>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por cataratas en 2015 (Tasa respuesta: 1,64%)</t>
+    <t>Población que recibe medicación o terapia por cataratas en 2016 (Tasa respuesta: 1,64%)</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -495,13 +495,13 @@
     <t>9,36%</t>
   </si>
   <si>
-    <t>53,23%</t>
+    <t>46,57%</t>
   </si>
   <si>
     <t>7,1%</t>
   </si>
   <si>
-    <t>31,66%</t>
+    <t>33,38%</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -510,13 +510,13 @@
     <t>90,64%</t>
   </si>
   <si>
-    <t>46,77%</t>
+    <t>53,43%</t>
   </si>
   <si>
     <t>92,9%</t>
   </si>
   <si>
-    <t>68,34%</t>
+    <t>66,62%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -525,16 +525,16 @@
     <t>58,74%</t>
   </si>
   <si>
-    <t>16,8%</t>
+    <t>16,78%</t>
   </si>
   <si>
     <t>49,55%</t>
   </si>
   <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>84,58%</t>
   </si>
   <si>
     <t>22,85%</t>
@@ -543,58 +543,58 @@
     <t>41,26%</t>
   </si>
   <si>
-    <t>83,2%</t>
+    <t>83,22%</t>
   </si>
   <si>
     <t>50,45%</t>
   </si>
   <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
-    <t>82,59%</t>
+    <t>69,83%</t>
   </si>
   <si>
     <t>63,9%</t>
   </si>
   <si>
-    <t>20,38%</t>
+    <t>19,94%</t>
   </si>
   <si>
     <t>48,71%</t>
   </si>
   <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
   </si>
   <si>
     <t>66,74%</t>
   </si>
   <si>
-    <t>17,41%</t>
+    <t>30,17%</t>
   </si>
   <si>
     <t>36,1%</t>
   </si>
   <si>
-    <t>79,62%</t>
+    <t>80,06%</t>
   </si>
   <si>
     <t>51,29%</t>
   </si>
   <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
   </si>
   <si>
     <t>67,86%</t>
@@ -603,16 +603,16 @@
     <t>67,21%</t>
   </si>
   <si>
-    <t>18,67%</t>
+    <t>17,44%</t>
   </si>
   <si>
     <t>67,41%</t>
   </si>
   <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
   </si>
   <si>
     <t>32,14%</t>
@@ -621,28 +621,28 @@
     <t>32,79%</t>
   </si>
   <si>
-    <t>81,33%</t>
+    <t>82,56%</t>
   </si>
   <si>
     <t>32,59%</t>
   </si>
   <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>66,81%</t>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
   </si>
   <si>
     <t>34,94%</t>
   </si>
   <si>
-    <t>83,88%</t>
+    <t>82,88%</t>
   </si>
   <si>
     <t>65,06%</t>
   </si>
   <si>
-    <t>16,12%</t>
+    <t>17,12%</t>
   </si>
   <si>
     <t>62,7%</t>
@@ -654,16 +654,19 @@
     <t>41,65%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>84,52%</t>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
   </si>
   <si>
     <t>48,74%</t>
   </si>
   <si>
-    <t>77,0%</t>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
   </si>
   <si>
     <t>37,3%</t>
@@ -675,172 +678,175 @@
     <t>58,35%</t>
   </si>
   <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
   </si>
   <si>
     <t>51,26%</t>
   </si>
   <si>
-    <t>23,0%</t>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
   </si>
   <si>
     <t>49,45%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>75,33%</t>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
   </si>
   <si>
     <t>54,04%</t>
   </si>
   <si>
-    <t>30,84%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
   </si>
   <si>
     <t>52,36%</t>
   </si>
   <si>
-    <t>33,86%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>69,52%</t>
   </si>
   <si>
     <t>50,55%</t>
   </si>
   <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
   </si>
   <si>
     <t>45,96%</t>
   </si>
   <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>70,29%</t>
   </si>
   <si>
     <t>47,64%</t>
   </si>
   <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
+    <t>30,48%</t>
+  </si>
+  <si>
+    <t>66,66%</t>
   </si>
   <si>
     <t>11,07%</t>
   </si>
   <si>
-    <t>50,63%</t>
+    <t>50,13%</t>
   </si>
   <si>
     <t>32,88%</t>
   </si>
   <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>58,47%</t>
   </si>
   <si>
     <t>26,48%</t>
   </si>
   <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>45,55%</t>
   </si>
   <si>
     <t>88,93%</t>
   </si>
   <si>
-    <t>49,37%</t>
+    <t>49,87%</t>
   </si>
   <si>
     <t>67,12%</t>
   </si>
   <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
+    <t>41,53%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
   </si>
   <si>
     <t>73,52%</t>
   </si>
   <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
+    <t>54,45%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
   </si>
   <si>
     <t>35,92%</t>
   </si>
   <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
   </si>
   <si>
     <t>43,01%</t>
   </si>
   <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>55,28%</t>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>55,21%</t>
   </si>
   <si>
     <t>40,85%</t>
   </si>
   <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>49,63%</t>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
   </si>
   <si>
     <t>64,08%</t>
   </si>
   <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
   </si>
   <si>
     <t>56,99%</t>
   </si>
   <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>67,81%</t>
+    <t>44,79%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
   </si>
   <si>
     <t>59,15%</t>
   </si>
   <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>69,08%</t>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
   </si>
 </sst>
 </file>
@@ -1252,7 +1258,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{700D9D46-4935-4305-A08F-D86467FB8F4B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03EBEC62-C994-43DB-B39A-B04E28AB0172}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1701,10 +1707,10 @@
         <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1719,10 +1725,10 @@
         <v>3975</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -1734,10 +1740,10 @@
         <v>4195</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>16</v>
@@ -1749,13 +1755,13 @@
         <v>8169</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1811,7 +1817,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -1823,13 +1829,13 @@
         <v>5203</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H13" s="7">
         <v>8</v>
@@ -1838,13 +1844,13 @@
         <v>8579</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -1853,13 +1859,13 @@
         <v>13782</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1874,13 +1880,13 @@
         <v>13272</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H14" s="7">
         <v>13</v>
@@ -1889,13 +1895,13 @@
         <v>14408</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M14" s="7">
         <v>26</v>
@@ -1904,13 +1910,13 @@
         <v>27681</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1966,7 +1972,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1978,13 +1984,13 @@
         <v>2211</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>3</v>
@@ -1993,13 +1999,13 @@
         <v>3987</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M16" s="7">
         <v>5</v>
@@ -2008,13 +2014,13 @@
         <v>6198</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2029,10 +2035,10 @@
         <v>7482</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>16</v>
@@ -2044,13 +2050,13 @@
         <v>7965</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -2059,13 +2065,13 @@
         <v>15447</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2151,7 +2157,7 @@
         <v>85</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>24</v>
+        <v>86</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>16</v>
@@ -2163,13 +2169,13 @@
         <v>2970</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2187,7 +2193,7 @@
         <v>16</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>32</v>
@@ -2199,13 +2205,13 @@
         <v>995</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -2214,13 +2220,13 @@
         <v>3140</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2276,7 +2282,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2288,13 +2294,13 @@
         <v>7151</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H22" s="7">
         <v>5</v>
@@ -2303,13 +2309,13 @@
         <v>5034</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M22" s="7">
         <v>11</v>
@@ -2318,13 +2324,13 @@
         <v>12185</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,13 +2345,13 @@
         <v>7153</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H23" s="7">
         <v>9</v>
@@ -2354,13 +2360,13 @@
         <v>10438</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -2369,13 +2375,13 @@
         <v>17591</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2431,7 +2437,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2443,13 +2449,13 @@
         <v>2141</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -2458,13 +2464,13 @@
         <v>9621</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>117</v>
+        <v>26</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -2473,13 +2479,13 @@
         <v>11762</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2494,10 +2500,10 @@
         <v>11170</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>16</v>
@@ -2509,13 +2515,13 @@
         <v>8770</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>126</v>
+        <v>17</v>
       </c>
       <c r="M26" s="7">
         <v>16</v>
@@ -2765,7 +2771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8295F0B4-DD4B-4D84-8BA2-6724CBE41C5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{209C83A6-365E-4F21-9388-1AAE8C146061}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3342,7 +3348,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3497,7 +3503,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3691,10 +3697,10 @@
         <v>207</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3709,13 +3715,13 @@
         <v>1573</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3724,13 +3730,13 @@
         <v>4841</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -3739,13 +3745,13 @@
         <v>6414</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>35</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3801,7 +3807,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3813,13 +3819,13 @@
         <v>5578</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -3828,13 +3834,13 @@
         <v>10543</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -3843,13 +3849,13 @@
         <v>16120</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3864,13 +3870,13 @@
         <v>5702</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -3879,13 +3885,13 @@
         <v>8967</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M23" s="7">
         <v>14</v>
@@ -3894,13 +3900,13 @@
         <v>14670</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,7 +3962,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -3968,13 +3974,13 @@
         <v>867</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -3983,13 +3989,13 @@
         <v>6194</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -3998,13 +4004,13 @@
         <v>7061</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4019,10 +4025,10 @@
         <v>6962</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>16</v>
@@ -4034,13 +4040,13 @@
         <v>12646</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M26" s="7">
         <v>18</v>
@@ -4049,13 +4055,13 @@
         <v>19608</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4129,13 @@
         <v>12712</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H28" s="7">
         <v>30</v>
@@ -4138,13 +4144,13 @@
         <v>34610</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M28" s="7">
         <v>44</v>
@@ -4153,13 +4159,13 @@
         <v>47323</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4180,13 @@
         <v>22676</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H29" s="7">
         <v>40</v>
@@ -4189,13 +4195,13 @@
         <v>45855</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M29" s="7">
         <v>64</v>
@@ -4204,13 +4210,13 @@
         <v>68530</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
